--- a/Photographic Archive/WH ANDREWS COLLECTION.xlsx
+++ b/Photographic Archive/WH ANDREWS COLLECTION.xlsx
@@ -2965,9 +2965,9 @@
   </sheetPr>
   <dimension ref="A1:Z218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2979,7 +2979,7 @@
     <col min="7" max="7" width="39.44140625" customWidth="1"/>
     <col min="8" max="8" width="12.109375" customWidth="1"/>
     <col min="9" max="9" width="9.6640625" customWidth="1"/>
-    <col min="11" max="14" width="12.6640625" customWidth="1"/>
+    <col min="11" max="14" width="12.6640625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
